--- a/data/testData.xlsx
+++ b/data/testData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Source</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -405,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -416,7 +425,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -427,7 +436,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
